--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
-    <t>﻿date</t>
+    <t>Fecha</t>
   </si>
   <si>
     <t>12/07/2019</t>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -720,7 +720,7 @@
         <v>975</v>
       </c>
       <c r="D22" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -1111,7 +1111,7 @@
         <v>1215</v>
       </c>
       <c r="D39" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>1730</v>
       </c>
       <c r="D42" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
@@ -1295,7 +1295,7 @@
         <v>1340</v>
       </c>
       <c r="D47" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1">
         <v>7</v>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -168,16 +168,16 @@
     <t>Encuestados</t>
   </si>
   <si>
-    <t>Joaquín Lavín</t>
-  </si>
-  <si>
-    <t>Daniel Jadue</t>
-  </si>
-  <si>
-    <t>Beatriz Sánchez</t>
-  </si>
-  <si>
-    <t>José Antonio Kast</t>
+    <t>J. Lavín</t>
+  </si>
+  <si>
+    <t>D. Jadue</t>
+  </si>
+  <si>
+    <t>B. Sánchez</t>
+  </si>
+  <si>
+    <t>JA. Kast</t>
   </si>
 </sst>
 </file>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -165,7 +165,7 @@
     <t>Data Influye</t>
   </si>
   <si>
-    <t>Encuestados</t>
+    <t>N</t>
   </si>
   <si>
     <t>J. Lavín</t>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -168,16 +168,16 @@
     <t>N</t>
   </si>
   <si>
-    <t>J. Lavín</t>
-  </si>
-  <si>
-    <t>D. Jadue</t>
-  </si>
-  <si>
-    <t>B. Sánchez</t>
-  </si>
-  <si>
-    <t>JA. Kast</t>
+    <t>Lavín</t>
+  </si>
+  <si>
+    <t>Jadue</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Kast</t>
   </si>
 </sst>
 </file>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Fecha</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>26/07/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -223,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -231,22 +234,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -254,7 +257,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1">
         <v>710</v>
@@ -277,7 +280,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
         <v>1017</v>
@@ -300,7 +303,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>795</v>
@@ -323,7 +326,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>1030</v>
@@ -346,7 +349,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>907</v>
@@ -369,7 +372,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>1061</v>
@@ -392,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>827</v>
@@ -415,7 +418,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>706</v>
@@ -438,7 +441,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1">
         <v>1005</v>
@@ -461,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
         <v>1304</v>
@@ -484,7 +487,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>708</v>
@@ -507,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>1159</v>
@@ -530,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>1014</v>
@@ -553,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>708</v>
@@ -576,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
         <v>702</v>
@@ -599,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
         <v>1030</v>
@@ -622,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
         <v>951</v>
@@ -645,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
         <v>950</v>
@@ -668,7 +671,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1">
         <v>709</v>
@@ -691,7 +694,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1">
         <v>806</v>
@@ -714,7 +717,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <v>975</v>
@@ -737,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1">
         <v>1045</v>
@@ -760,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1">
         <v>705</v>
@@ -783,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
         <v>1445</v>
@@ -806,7 +809,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <v>1043</v>
@@ -829,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
         <v>796</v>
@@ -852,7 +855,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <v>1135</v>
@@ -875,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>702</v>
@@ -898,7 +901,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <v>1273</v>
@@ -921,7 +924,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
         <v>1230</v>
@@ -944,7 +947,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <v>800</v>
@@ -967,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1">
         <v>709</v>
@@ -990,7 +993,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
         <v>1270</v>
@@ -1013,7 +1016,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1">
         <v>1227</v>
@@ -1036,7 +1039,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1">
         <v>800</v>
@@ -1059,7 +1062,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <v>1209</v>
@@ -1082,7 +1085,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
         <v>706</v>
@@ -1105,7 +1108,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
         <v>1215</v>
@@ -1128,7 +1131,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1">
         <v>800</v>
@@ -1151,7 +1154,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <v>705</v>
@@ -1174,7 +1177,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <v>1730</v>
@@ -1197,7 +1200,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <v>1961</v>
@@ -1220,7 +1223,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1">
         <v>1260</v>
@@ -1243,7 +1246,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1">
         <v>800</v>
@@ -1266,7 +1269,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1">
         <v>704</v>
@@ -1289,7 +1292,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
         <v>1340</v>
@@ -1305,6 +1308,29 @@
       </c>
       <c r="G47" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2034</v>
+      </c>
+      <c r="D48" s="1">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1">
+        <v>15</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>Fecha</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>26/07/2020</t>
+  </si>
+  <si>
+    <t>01/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -226,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -234,22 +237,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -257,7 +260,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
         <v>710</v>
@@ -280,7 +283,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>1017</v>
@@ -303,7 +306,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>795</v>
@@ -326,7 +329,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>1030</v>
@@ -349,7 +352,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>907</v>
@@ -372,7 +375,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>1061</v>
@@ -395,7 +398,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>827</v>
@@ -418,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>706</v>
@@ -441,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
         <v>1005</v>
@@ -464,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>1304</v>
@@ -487,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>708</v>
@@ -510,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <v>1159</v>
@@ -533,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
         <v>1014</v>
@@ -556,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>708</v>
@@ -579,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
         <v>702</v>
@@ -602,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
         <v>1030</v>
@@ -625,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
         <v>951</v>
@@ -648,7 +651,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1">
         <v>950</v>
@@ -671,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1">
         <v>709</v>
@@ -694,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>806</v>
@@ -717,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
         <v>975</v>
@@ -740,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <v>1045</v>
@@ -763,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>705</v>
@@ -786,7 +789,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
         <v>1445</v>
@@ -809,7 +812,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>1043</v>
@@ -832,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1">
         <v>796</v>
@@ -855,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>1135</v>
@@ -878,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
         <v>702</v>
@@ -901,7 +904,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
         <v>1273</v>
@@ -924,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
         <v>1230</v>
@@ -947,7 +950,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1">
         <v>800</v>
@@ -970,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1">
         <v>709</v>
@@ -993,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1">
         <v>1270</v>
@@ -1016,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1">
         <v>1227</v>
@@ -1039,7 +1042,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1">
         <v>800</v>
@@ -1062,7 +1065,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <v>1209</v>
@@ -1085,7 +1088,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <v>706</v>
@@ -1108,7 +1111,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1">
         <v>1215</v>
@@ -1131,7 +1134,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
         <v>800</v>
@@ -1154,7 +1157,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <v>705</v>
@@ -1177,7 +1180,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <v>1730</v>
@@ -1200,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1">
         <v>1961</v>
@@ -1223,7 +1226,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1">
         <v>1260</v>
@@ -1246,7 +1249,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1">
         <v>800</v>
@@ -1269,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1">
         <v>704</v>
@@ -1292,7 +1295,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1">
         <v>1340</v>
@@ -1315,7 +1318,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1">
         <v>2034</v>
@@ -1331,6 +1334,29 @@
       </c>
       <c r="G48" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D49" s="1">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Fecha</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>26/07/2020</t>
+  </si>
+  <si>
+    <t>31/07/2020</t>
   </si>
   <si>
     <t>01/08/2020</t>
@@ -229,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -237,22 +240,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -260,7 +263,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>710</v>
@@ -283,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>1017</v>
@@ -306,7 +309,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>795</v>
@@ -329,7 +332,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>1030</v>
@@ -352,7 +355,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1">
         <v>907</v>
@@ -375,7 +378,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>1061</v>
@@ -398,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1">
         <v>827</v>
@@ -421,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1">
         <v>706</v>
@@ -444,7 +447,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
         <v>1005</v>
@@ -467,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <v>1304</v>
@@ -490,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>708</v>
@@ -513,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>1159</v>
@@ -536,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>1014</v>
@@ -559,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
         <v>708</v>
@@ -582,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
         <v>702</v>
@@ -605,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>1030</v>
@@ -628,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1">
         <v>951</v>
@@ -651,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
         <v>950</v>
@@ -674,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>709</v>
@@ -697,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1">
         <v>806</v>
@@ -720,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1">
         <v>975</v>
@@ -743,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1">
         <v>1045</v>
@@ -766,7 +769,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1">
         <v>705</v>
@@ -789,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>1445</v>
@@ -812,7 +815,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1">
         <v>1043</v>
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
         <v>796</v>
@@ -858,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
         <v>1135</v>
@@ -881,7 +884,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <v>702</v>
@@ -904,7 +907,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1">
         <v>1273</v>
@@ -927,7 +930,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>1230</v>
@@ -950,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1">
         <v>800</v>
@@ -973,7 +976,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1">
         <v>709</v>
@@ -996,7 +999,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1">
         <v>1270</v>
@@ -1019,7 +1022,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1">
         <v>1227</v>
@@ -1042,7 +1045,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1">
         <v>800</v>
@@ -1065,7 +1068,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <v>1209</v>
@@ -1088,7 +1091,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
         <v>706</v>
@@ -1111,7 +1114,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1">
         <v>1215</v>
@@ -1134,7 +1137,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1">
         <v>800</v>
@@ -1157,7 +1160,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1">
         <v>705</v>
@@ -1180,7 +1183,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <v>1730</v>
@@ -1203,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1">
         <v>1961</v>
@@ -1226,7 +1229,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1">
         <v>1260</v>
@@ -1249,7 +1252,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1">
         <v>800</v>
@@ -1272,7 +1275,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1">
         <v>704</v>
@@ -1295,7 +1298,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1">
         <v>1340</v>
@@ -1318,7 +1321,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
         <v>2034</v>
@@ -1341,21 +1344,44 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1">
+        <v>800</v>
+      </c>
+      <c r="D49" s="1">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
         <v>1430</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="1">
         <v>18</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>11</v>
       </c>
-      <c r="F49" s="1">
-        <v>2</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
         <v>3</v>
       </c>
     </row>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,20 +13,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>12/07/2019</t>
-  </si>
-  <si>
-    <t>25/07/2019</t>
-  </si>
-  <si>
-    <t>29/07/2019</t>
-  </si>
-  <si>
     <t>29/08/2019</t>
   </si>
   <si>
@@ -159,16 +150,22 @@
     <t>01/08/2020</t>
   </si>
   <si>
+    <t>15/08/2020</t>
+  </si>
+  <si>
+    <t>13/08/2020</t>
+  </si>
+  <si>
     <t>Encuesta</t>
   </si>
   <si>
+    <t>Activa Research</t>
+  </si>
+  <si>
+    <t>Criteria Research</t>
+  </si>
+  <si>
     <t>Cadem</t>
-  </si>
-  <si>
-    <t>Activa Research</t>
-  </si>
-  <si>
-    <t>Criteria Research</t>
   </si>
   <si>
     <t>Data Influye</t>
@@ -232,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -240,22 +237,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -263,22 +260,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
-        <v>710</v>
+        <v>1030</v>
       </c>
       <c r="D2" s="1">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8</v>
-      </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -286,22 +283,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
-        <v>1017</v>
+        <v>907</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -309,22 +306,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
-        <v>795</v>
+        <v>1061</v>
       </c>
       <c r="D4" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -332,22 +329,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
-        <v>1030</v>
+        <v>827</v>
       </c>
       <c r="D5" s="1">
         <v>17</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -355,22 +352,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>907</v>
+        <v>706</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -378,22 +375,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
-        <v>1061</v>
+        <v>1005</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -401,99 +398,99 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
-        <v>827</v>
+        <v>1304</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D9" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1159</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1005</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
       <c r="G10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
-        <v>1304</v>
+        <v>1014</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <v>708</v>
@@ -502,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -513,25 +510,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="1">
-        <v>1159</v>
+        <v>702</v>
       </c>
       <c r="D13" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -539,22 +536,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
-        <v>1014</v>
+        <v>1030</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -565,19 +562,19 @@
         <v>49</v>
       </c>
       <c r="C15" s="1">
-        <v>708</v>
+        <v>951</v>
       </c>
       <c r="D15" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -585,22 +582,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
-        <v>702</v>
+        <v>950</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -611,19 +608,19 @@
         <v>50</v>
       </c>
       <c r="C17" s="1">
-        <v>1030</v>
+        <v>709</v>
       </c>
       <c r="D17" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +628,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
-        <v>951</v>
+        <v>806</v>
       </c>
       <c r="D18" s="1">
         <v>14</v>
@@ -643,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -654,22 +651,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
-        <v>950</v>
+        <v>975</v>
       </c>
       <c r="D19" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -677,22 +674,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1">
-        <v>709</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -700,22 +697,22 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
-        <v>806</v>
+        <v>705</v>
       </c>
       <c r="D21" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -723,22 +720,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1">
-        <v>975</v>
+        <v>1445</v>
       </c>
       <c r="D22" s="1">
         <v>15</v>
       </c>
       <c r="E22" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1">
         <v>6</v>
       </c>
       <c r="G22" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -746,22 +743,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D23" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -772,19 +769,19 @@
         <v>49</v>
       </c>
       <c r="C24" s="1">
-        <v>705</v>
+        <v>796</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -792,22 +789,22 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1">
-        <v>1445</v>
+        <v>1135</v>
       </c>
       <c r="D25" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
         <v>6</v>
       </c>
       <c r="G25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -818,19 +815,19 @@
         <v>50</v>
       </c>
       <c r="C26" s="1">
-        <v>1043</v>
+        <v>702</v>
       </c>
       <c r="D26" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -841,19 +838,19 @@
         <v>51</v>
       </c>
       <c r="C27" s="1">
-        <v>796</v>
+        <v>1273</v>
       </c>
       <c r="D27" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -861,22 +858,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
-        <v>1135</v>
+        <v>1230</v>
       </c>
       <c r="D28" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -887,19 +884,19 @@
         <v>49</v>
       </c>
       <c r="C29" s="1">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="D29" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -907,22 +904,22 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
-        <v>1273</v>
+        <v>709</v>
       </c>
       <c r="D30" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -930,22 +927,22 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
-        <v>1230</v>
+        <v>1270</v>
       </c>
       <c r="D31" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -953,22 +950,22 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1">
-        <v>800</v>
+        <v>1227</v>
       </c>
       <c r="D32" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -979,19 +976,19 @@
         <v>49</v>
       </c>
       <c r="C33" s="1">
-        <v>709</v>
+        <v>800</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G33" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -999,22 +996,22 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
-        <v>1270</v>
+        <v>1209</v>
       </c>
       <c r="D34" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1025,16 +1022,16 @@
         <v>50</v>
       </c>
       <c r="C35" s="1">
-        <v>1227</v>
+        <v>706</v>
       </c>
       <c r="D35" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
@@ -1045,22 +1042,22 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
-        <v>800</v>
+        <v>1215</v>
       </c>
       <c r="D36" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1068,22 +1065,22 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
-        <v>1209</v>
+        <v>800</v>
       </c>
       <c r="D37" s="1">
         <v>16</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1091,19 +1088,19 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D38" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
@@ -1114,22 +1111,22 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>1215</v>
+        <v>1730</v>
       </c>
       <c r="D39" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39" s="1">
         <v>4</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1140,19 +1137,19 @@
         <v>51</v>
       </c>
       <c r="C40" s="1">
-        <v>800</v>
+        <v>1961</v>
       </c>
       <c r="D40" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1160,22 +1157,22 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
-        <v>705</v>
+        <v>1260</v>
       </c>
       <c r="D41" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1183,22 +1180,22 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
-        <v>1730</v>
+        <v>800</v>
       </c>
       <c r="D42" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1206,22 +1203,22 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
-        <v>1961</v>
+        <v>704</v>
       </c>
       <c r="D43" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1229,22 +1226,22 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>1260</v>
+        <v>1340</v>
       </c>
       <c r="D44" s="1">
         <v>13</v>
       </c>
       <c r="E44" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1255,19 +1252,19 @@
         <v>51</v>
       </c>
       <c r="C45" s="1">
-        <v>800</v>
+        <v>2034</v>
       </c>
       <c r="D45" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1275,19 @@
         <v>49</v>
       </c>
       <c r="C46" s="1">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="D46" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1295,19 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>1340</v>
+        <v>1430</v>
       </c>
       <c r="D47" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -1321,19 +1318,19 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
-        <v>2034</v>
+        <v>1434</v>
       </c>
       <c r="D48" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -1344,44 +1341,21 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1">
-        <v>800</v>
+        <v>703</v>
       </c>
       <c r="D49" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D50" s="1">
-        <v>18</v>
-      </c>
-      <c r="E50" s="1">
-        <v>11</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2</v>
-      </c>
-      <c r="G50" s="1">
         <v>3</v>
       </c>
     </row>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>Fecha</t>
   </si>
@@ -174,6 +174,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>Prob</t>
+  </si>
+  <si>
     <t>Lavín</t>
   </si>
   <si>
@@ -184,6 +187,84 @@
   </si>
   <si>
     <t>Kast</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>p21</t>
+  </si>
+  <si>
+    <t>p22</t>
+  </si>
+  <si>
+    <t>p23</t>
+  </si>
+  <si>
+    <t>p24</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>p26</t>
+  </si>
+  <si>
+    <t>p27</t>
+  </si>
+  <si>
+    <t>p28</t>
+  </si>
+  <si>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>p30</t>
   </si>
 </sst>
 </file>
@@ -229,7 +310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:AH49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -254,6 +335,87 @@
       <c r="G1" t="s">
         <v>56</v>
       </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -266,16 +428,97 @@
         <v>1030</v>
       </c>
       <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>17</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>9</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.1999998092651367</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.9000000953674316</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3.2000000476837158</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -289,16 +532,97 @@
         <v>907</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>16</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>12</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -312,16 +636,97 @@
         <v>1061</v>
       </c>
       <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>14</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.1999998092651367</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -335,16 +740,97 @@
         <v>827</v>
       </c>
       <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>17</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>14</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>12</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -358,16 +844,97 @@
         <v>706</v>
       </c>
       <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
       <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -381,16 +948,97 @@
         <v>1005</v>
       </c>
       <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -404,16 +1052,97 @@
         <v>1304</v>
       </c>
       <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
       <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.5999999046325684</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.2000000476837158</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3.9000000953674316</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -427,16 +1156,97 @@
         <v>708</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
       <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="1">
-        <v>2</v>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -450,16 +1260,97 @@
         <v>1159</v>
       </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
       <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
         <v>9</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.7000000476837158</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="M10" s="1">
+        <v>9.8999996185302734</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.0999999046325684</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -473,16 +1364,97 @@
         <v>1014</v>
       </c>
       <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>7</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8</v>
       </c>
       <c r="G11" s="1">
         <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -496,16 +1468,97 @@
         <v>708</v>
       </c>
       <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
       <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="1">
-        <v>2</v>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -519,16 +1572,97 @@
         <v>702</v>
       </c>
       <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
         <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -542,16 +1676,97 @@
         <v>1030</v>
       </c>
       <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.7000000476837158</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.7000000476837158</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -565,16 +1780,97 @@
         <v>951</v>
       </c>
       <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>14</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>8</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>9</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -588,16 +1884,97 @@
         <v>950</v>
       </c>
       <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
       </c>
       <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
         <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.1999998092651367</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5.0999999046325684</v>
+      </c>
+      <c r="M16" s="1">
+        <v>11.600000381469727</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -611,16 +1988,97 @@
         <v>709</v>
       </c>
       <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
       <c r="F17" s="1">
         <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -634,16 +2092,97 @@
         <v>806</v>
       </c>
       <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>14</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>8</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>8</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -657,16 +2196,97 @@
         <v>975</v>
       </c>
       <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>15</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>5</v>
-      </c>
-      <c r="F19" s="1">
-        <v>6</v>
       </c>
       <c r="G19" s="1">
         <v>6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9.8999996185302734</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>5.5999999046325684</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -680,16 +2300,97 @@
         <v>1045</v>
       </c>
       <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>16</v>
       </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
       <c r="F20" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1">
         <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5.8000001907348633</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6.4000000953674316</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3.0999999046325684</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -703,16 +2404,97 @@
         <v>705</v>
       </c>
       <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
         <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -726,16 +2508,97 @@
         <v>1445</v>
       </c>
       <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>15</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>14</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>6</v>
       </c>
-      <c r="G22" s="1">
-        <v>3</v>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>7</v>
+      </c>
+      <c r="R22" s="1">
+        <v>8</v>
+      </c>
+      <c r="S22" s="1">
+        <v>4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -749,16 +2612,97 @@
         <v>1043</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>14</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>4</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>6</v>
       </c>
-      <c r="G23" s="1">
-        <v>2</v>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8.1999998092651367</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.89999997615814209</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.89999997615814209</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -772,16 +2716,97 @@
         <v>796</v>
       </c>
       <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>15</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6</v>
       </c>
       <c r="F24" s="1">
         <v>6</v>
       </c>
       <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1">
         <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>7</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -795,16 +2820,97 @@
         <v>1135</v>
       </c>
       <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>14</v>
       </c>
-      <c r="E25" s="1">
-        <v>3</v>
-      </c>
       <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
         <v>6</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3.7999999523162842</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="M25" s="1">
+        <v>7.9000000953674316</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.89999997615814209</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>7.4000000953674316</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -818,16 +2924,97 @@
         <v>702</v>
       </c>
       <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>7</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
       <c r="G26" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -841,16 +3028,97 @@
         <v>1273</v>
       </c>
       <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>16</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>13</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>8</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>9</v>
+      </c>
+      <c r="R27" s="1">
+        <v>5</v>
+      </c>
+      <c r="S27" s="1">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2</v>
+      </c>
+      <c r="V27" s="1">
+        <v>4</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -864,16 +3132,97 @@
         <v>1230</v>
       </c>
       <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>12</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>4</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3.7000000476837158</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="M28" s="1">
+        <v>8.1999998092651367</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -887,16 +3236,97 @@
         <v>800</v>
       </c>
       <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
         <v>18</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>9</v>
-      </c>
-      <c r="F29" s="1">
-        <v>8</v>
       </c>
       <c r="G29" s="1">
         <v>8</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>6</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>2</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -910,16 +3340,97 @@
         <v>709</v>
       </c>
       <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>10</v>
       </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -933,16 +3444,97 @@
         <v>1270</v>
       </c>
       <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <v>19</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>6</v>
       </c>
-      <c r="F31" s="1">
-        <v>3</v>
-      </c>
       <c r="G31" s="1">
         <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4.1999998092651367</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="M31" s="1">
+        <v>6.1999998092651367</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -956,16 +3548,97 @@
         <v>1227</v>
       </c>
       <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>20</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>6</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>4</v>
       </c>
-      <c r="G32" s="1">
-        <v>2</v>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="M32" s="1">
+        <v>5.4000000953674316</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>3.0999999046325684</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -979,16 +3652,97 @@
         <v>800</v>
       </c>
       <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>18</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>7</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>6</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>6</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>3</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1002,16 +3756,97 @@
         <v>1209</v>
       </c>
       <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
         <v>16</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>4</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="M34" s="1">
+        <v>10.800000190734863</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1025,16 +3860,97 @@
         <v>706</v>
       </c>
       <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
         <v>7</v>
       </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
       <c r="F35" s="1">
         <v>3</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1048,16 +3964,97 @@
         <v>1215</v>
       </c>
       <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>17</v>
       </c>
-      <c r="E36" s="1">
-        <v>3</v>
-      </c>
       <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
         <v>4</v>
       </c>
-      <c r="G36" s="1">
-        <v>3</v>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5.3000001907348633</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="M36" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1071,16 +4068,97 @@
         <v>800</v>
       </c>
       <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>16</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>8</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>6</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>7</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>4</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>2</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>2</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1094,16 +4172,97 @@
         <v>705</v>
       </c>
       <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>6</v>
       </c>
-      <c r="E38" s="1">
-        <v>3</v>
-      </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1117,16 +4276,97 @@
         <v>1730</v>
       </c>
       <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
         <v>16</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>5</v>
-      </c>
-      <c r="F39" s="1">
-        <v>4</v>
       </c>
       <c r="G39" s="1">
         <v>4</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3.7999999523162842</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1140,16 +4380,97 @@
         <v>1961</v>
       </c>
       <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>12</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>9</v>
       </c>
-      <c r="F40" s="1">
-        <v>3</v>
-      </c>
       <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
         <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>4</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>3</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>2</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1163,16 +4484,97 @@
         <v>1260</v>
       </c>
       <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
         <v>13</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>9</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>5</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4.0999999046325684</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3.2999999523162842</v>
+      </c>
+      <c r="M41" s="1">
+        <v>5.5999999046325684</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1186,16 +4588,97 @@
         <v>800</v>
       </c>
       <c r="D42" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>12</v>
       </c>
       <c r="F42" s="1">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1">
         <v>7</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>8</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>5</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>3</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1209,16 +4692,97 @@
         <v>704</v>
       </c>
       <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
         <v>7</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>6</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
       <c r="G43" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1232,16 +4796,97 @@
         <v>1340</v>
       </c>
       <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
         <v>13</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>7</v>
       </c>
-      <c r="F44" s="1">
-        <v>3</v>
-      </c>
       <c r="G44" s="1">
         <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.3000001907348633</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>5</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>6.6999998092651367</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>2.2999999523162842</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1255,16 +4900,97 @@
         <v>2034</v>
       </c>
       <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <v>14</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>15</v>
       </c>
-      <c r="F45" s="1">
-        <v>3</v>
-      </c>
       <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
         <v>5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>5</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>1</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1278,16 +5004,97 @@
         <v>800</v>
       </c>
       <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
         <v>13</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>12</v>
-      </c>
-      <c r="F46" s="1">
-        <v>6</v>
       </c>
       <c r="G46" s="1">
         <v>6</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>2</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1301,16 +5108,97 @@
         <v>1430</v>
       </c>
       <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
         <v>18</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>11</v>
       </c>
-      <c r="F47" s="1">
-        <v>2</v>
-      </c>
       <c r="G47" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3.2999999523162842</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="M47" s="1">
+        <v>5.6999998092651367</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1324,16 +5212,97 @@
         <v>1434</v>
       </c>
       <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
         <v>15</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>10</v>
       </c>
-      <c r="F48" s="1">
-        <v>2</v>
-      </c>
       <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
         <v>5</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2.5999999046325684</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+      <c r="M48" s="1">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1347,16 +5316,97 @@
         <v>703</v>
       </c>
       <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
         <v>8</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>7</v>
       </c>
-      <c r="F49" s="1">
-        <v>2</v>
-      </c>
       <c r="G49" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>2</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Fecha</t>
   </si>
@@ -150,10 +150,13 @@
     <t>01/08/2020</t>
   </si>
   <si>
+    <t>13/08/2020</t>
+  </si>
+  <si>
     <t>15/08/2020</t>
   </si>
   <si>
-    <t>13/08/2020</t>
+    <t>24/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -232,7 +235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -240,25 +243,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -266,7 +269,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>1030</v>
@@ -292,7 +295,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>907</v>
@@ -318,7 +321,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>1061</v>
@@ -344,7 +347,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>827</v>
@@ -370,7 +373,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1">
         <v>706</v>
@@ -396,7 +399,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>1005</v>
@@ -422,7 +425,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>1304</v>
@@ -448,7 +451,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>708</v>
@@ -474,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1">
         <v>1159</v>
@@ -500,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <v>1014</v>
@@ -526,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1">
         <v>708</v>
@@ -552,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
         <v>702</v>
@@ -578,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>1030</v>
@@ -604,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>951</v>
@@ -630,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
         <v>950</v>
@@ -656,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1">
         <v>709</v>
@@ -682,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
         <v>806</v>
@@ -708,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1">
         <v>975</v>
@@ -734,7 +737,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>1045</v>
@@ -760,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1">
         <v>705</v>
@@ -786,7 +789,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1">
         <v>1445</v>
@@ -812,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <v>1043</v>
@@ -838,7 +841,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>796</v>
@@ -864,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
         <v>1135</v>
@@ -890,7 +893,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1">
         <v>702</v>
@@ -916,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1">
         <v>1273</v>
@@ -942,7 +945,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>1230</v>
@@ -968,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
         <v>800</v>
@@ -994,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
         <v>709</v>
@@ -1020,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
         <v>1270</v>
@@ -1046,7 +1049,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <v>1227</v>
@@ -1072,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
         <v>800</v>
@@ -1098,7 +1101,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1">
         <v>1209</v>
@@ -1124,7 +1127,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1">
         <v>706</v>
@@ -1150,7 +1153,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1">
         <v>1215</v>
@@ -1176,7 +1179,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <v>800</v>
@@ -1202,7 +1205,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1">
         <v>705</v>
@@ -1228,7 +1231,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1">
         <v>1730</v>
@@ -1254,7 +1257,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1">
         <v>1961</v>
@@ -1280,7 +1283,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1">
         <v>1260</v>
@@ -1306,7 +1309,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <v>800</v>
@@ -1332,7 +1335,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1">
         <v>704</v>
@@ -1358,7 +1361,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1">
         <v>1340</v>
@@ -1384,7 +1387,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1">
         <v>2034</v>
@@ -1410,7 +1413,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1">
         <v>800</v>
@@ -1436,7 +1439,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1">
         <v>1430</v>
@@ -1462,25 +1465,25 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1">
-        <v>1434</v>
+        <v>703</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G48" s="1">
         <v>2</v>
       </c>
       <c r="H48" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1488,25 +1491,51 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1">
-        <v>703</v>
+        <v>1434</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G49" s="1">
         <v>2</v>
       </c>
       <c r="H49" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1940</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,17 +13,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>29/08/2019</t>
-  </si>
-  <si>
-    <t>30/08/2019</t>
-  </si>
-  <si>
     <t>25/09/2019</t>
   </si>
   <si>
@@ -157,6 +151,9 @@
   </si>
   <si>
     <t>24/08/2020</t>
+  </si>
+  <si>
+    <t>29/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -235,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -243,25 +240,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -269,22 +266,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
-        <v>1030</v>
+        <v>1061</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>7</v>
@@ -295,22 +292,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
-        <v>907</v>
+        <v>827</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>12</v>
@@ -321,25 +318,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>1061</v>
+        <v>706</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -347,25 +344,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
-        <v>827</v>
+        <v>1005</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -373,129 +370,129 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
-        <v>706</v>
+        <v>1304</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1">
-        <v>1005</v>
+        <v>708</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1159</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1304</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1">
-        <v>708</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
-        <v>1159</v>
+        <v>708</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -506,22 +503,22 @@
         <v>50</v>
       </c>
       <c r="C11" s="1">
-        <v>1014</v>
+        <v>702</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -529,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>708</v>
+        <v>1030</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -555,25 +552,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
-        <v>702</v>
+        <v>951</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -581,25 +578,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
-        <v>1030</v>
+        <v>950</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -610,22 +607,22 @@
         <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>951</v>
+        <v>709</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -636,22 +633,22 @@
         <v>49</v>
       </c>
       <c r="C16" s="1">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -659,25 +656,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>709</v>
+        <v>975</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -685,25 +682,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1">
-        <v>806</v>
+        <v>1045</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -711,25 +708,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
-        <v>975</v>
+        <v>705</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -737,25 +734,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
-        <v>1045</v>
+        <v>1445</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -763,25 +760,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
-        <v>705</v>
+        <v>1043</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -789,10 +786,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>1445</v>
+        <v>796</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -801,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="F22" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1">
         <v>6</v>
       </c>
       <c r="H22" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -815,10 +812,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1">
-        <v>1043</v>
+        <v>1135</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -827,13 +824,13 @@
         <v>14</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
         <v>6</v>
       </c>
       <c r="H23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -844,22 +841,22 @@
         <v>50</v>
       </c>
       <c r="C24" s="1">
-        <v>796</v>
+        <v>702</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -867,25 +864,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
-        <v>1135</v>
+        <v>1273</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -893,25 +890,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
-        <v>702</v>
+        <v>1230</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -919,25 +916,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>1273</v>
+        <v>800</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F27" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1">
         <v>8</v>
       </c>
       <c r="H27" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -945,25 +942,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
-        <v>1230</v>
+        <v>709</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -971,25 +968,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
-        <v>800</v>
+        <v>1270</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -997,25 +994,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
-        <v>709</v>
+        <v>1227</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1026,22 +1023,22 @@
         <v>49</v>
       </c>
       <c r="C31" s="1">
-        <v>1270</v>
+        <v>800</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1049,25 +1046,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
       </c>
       <c r="H32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1078,22 +1075,22 @@
         <v>50</v>
       </c>
       <c r="C33" s="1">
-        <v>800</v>
+        <v>706</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1101,25 +1098,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
       </c>
       <c r="H34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1127,25 +1124,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1">
+        <v>6</v>
+      </c>
+      <c r="H35" s="1">
         <v>7</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1">
-        <v>3</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1153,25 +1150,25 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1">
-        <v>1215</v>
+        <v>705</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1176,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
-        <v>800</v>
+        <v>1730</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1191,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="F37" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1208,22 +1205,22 @@
         <v>51</v>
       </c>
       <c r="C38" s="1">
-        <v>705</v>
+        <v>1961</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1231,22 +1228,22 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>1730</v>
+        <v>1260</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39" s="1">
         <v>4</v>
@@ -1257,10 +1254,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1">
-        <v>1961</v>
+        <v>800</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -1269,13 +1266,13 @@
         <v>12</v>
       </c>
       <c r="F40" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H40" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1283,25 +1280,25 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1">
-        <v>1260</v>
+        <v>704</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1309,25 +1306,25 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
-        <v>800</v>
+        <v>1340</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H42" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1338,22 +1335,22 @@
         <v>51</v>
       </c>
       <c r="C43" s="1">
-        <v>704</v>
+        <v>2034</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1364,7 +1361,7 @@
         <v>49</v>
       </c>
       <c r="C44" s="1">
-        <v>1340</v>
+        <v>800</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -1373,13 +1370,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1387,25 +1384,25 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>2034</v>
+        <v>1430</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F45" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1416,22 +1413,22 @@
         <v>50</v>
       </c>
       <c r="C46" s="1">
-        <v>800</v>
+        <v>703</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H46" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1439,25 +1436,25 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="1">
         <v>2</v>
       </c>
       <c r="H47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1468,22 +1465,22 @@
         <v>51</v>
       </c>
       <c r="C48" s="1">
-        <v>703</v>
+        <v>1940</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1491,51 +1488,25 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>1434</v>
+        <v>1544</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1940</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>13</v>
-      </c>
-      <c r="F50" s="1">
-        <v>16</v>
-      </c>
-      <c r="G50" s="1">
-        <v>3</v>
-      </c>
-      <c r="H50" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>Fecha</t>
   </si>
@@ -183,10 +183,10 @@
     <t>Jadue</t>
   </si>
   <si>
+    <t>Kast</t>
+  </si>
+  <si>
     <t>Sánchez</t>
-  </si>
-  <si>
-    <t>Kast</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -278,134 +278,134 @@
         <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
-        <v>827</v>
+        <v>1061</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
         <v>14</v>
-      </c>
-      <c r="H3" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
-        <v>706</v>
+        <v>827</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1">
-        <v>1005</v>
+        <v>827</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
         <v>14</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>1304</v>
+        <v>706</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -414,313 +414,313 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
-        <v>1159</v>
+        <v>1005</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>9</v>
       </c>
       <c r="H8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
-        <v>708</v>
+        <v>1304</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="1">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>1030</v>
+        <v>1304</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
         <v>12</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
-        <v>951</v>
+        <v>708</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="1">
-        <v>950</v>
+        <v>1159</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
-        <v>709</v>
+        <v>1014</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1">
-        <v>806</v>
+        <v>1159</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
         <v>7</v>
       </c>
       <c r="H16" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
-        <v>975</v>
+        <v>1014</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>1045</v>
+        <v>708</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="1">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -731,25 +731,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
-        <v>1445</v>
+        <v>702</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
@@ -757,77 +757,77 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
-        <v>1043</v>
+        <v>702</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
-        <v>796</v>
+        <v>1030</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="1">
-        <v>1135</v>
+        <v>1030</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -835,71 +835,71 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1">
-        <v>702</v>
+        <v>951</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
-        <v>1273</v>
+        <v>951</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G25" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="1">
-        <v>1230</v>
+        <v>950</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
@@ -908,38 +908,38 @@
         <v>4</v>
       </c>
       <c r="H26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -951,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1">
         <v>3</v>
@@ -965,22 +965,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
-        <v>1270</v>
+        <v>709</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
         <v>3</v>
@@ -991,77 +991,77 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
-        <v>1227</v>
+        <v>806</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F30" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H30" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="1">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
         <v>7</v>
-      </c>
-      <c r="G31" s="1">
-        <v>6</v>
-      </c>
-      <c r="H31" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="1">
-        <v>1209</v>
+        <v>975</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1">
         <v>5</v>
@@ -1069,65 +1069,65 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1">
-        <v>706</v>
+        <v>975</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H33" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="1">
-        <v>1215</v>
+        <v>1045</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1">
-        <v>800</v>
+        <v>1045</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1136,18 +1136,18 @@
         <v>16</v>
       </c>
       <c r="F35" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -1159,354 +1159,1134 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
-        <v>1730</v>
+        <v>705</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1">
         <v>4</v>
       </c>
       <c r="H37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="1">
-        <v>1961</v>
+        <v>1445</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
       </c>
       <c r="H38" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1">
-        <v>1260</v>
+        <v>1445</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1">
-        <v>800</v>
+        <v>1043</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G40" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
-        <v>704</v>
+        <v>1043</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
-        <v>1340</v>
+        <v>796</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G42" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
-        <v>2034</v>
+        <v>796</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G43" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>800</v>
+        <v>1135</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G44" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>1430</v>
+        <v>1135</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1">
-        <v>1434</v>
+        <v>702</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="1">
-        <v>1940</v>
+        <v>1273</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1">
         <v>13</v>
-      </c>
-      <c r="F48" s="1">
-        <v>16</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3</v>
-      </c>
-      <c r="H48" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1273</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>16</v>
+      </c>
+      <c r="F49" s="1">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4</v>
+      </c>
+      <c r="H49" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1230</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1230</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
+        <v>800</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>18</v>
+      </c>
+      <c r="F52" s="1">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1">
+        <v>800</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1">
+        <v>709</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="1">
+        <v>709</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1270</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>19</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1270</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>19</v>
+      </c>
+      <c r="F57" s="1">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1227</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>20</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1227</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>20</v>
+      </c>
+      <c r="F59" s="1">
+        <v>6</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1">
+        <v>800</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>18</v>
+      </c>
+      <c r="F60" s="1">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="1">
+        <v>800</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>18</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1209</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>16</v>
+      </c>
+      <c r="F62" s="1">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="1">
+        <v>706</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1215</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>17</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="1">
+        <v>800</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>16</v>
+      </c>
+      <c r="F65" s="1">
+        <v>8</v>
+      </c>
+      <c r="G65" s="1">
+        <v>7</v>
+      </c>
+      <c r="H65" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="1">
+        <v>705</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>6</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1730</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>16</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1961</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1260</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="1">
+        <v>800</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1">
+        <v>8</v>
+      </c>
+      <c r="H70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="1">
+        <v>704</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1">
+        <v>6</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2034</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1">
+        <v>15</v>
+      </c>
+      <c r="G73" s="1">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="1">
+        <v>800</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>13</v>
+      </c>
+      <c r="F74" s="1">
+        <v>12</v>
+      </c>
+      <c r="G74" s="1">
+        <v>6</v>
+      </c>
+      <c r="H74" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>18</v>
+      </c>
+      <c r="F75" s="1">
+        <v>11</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="1">
+        <v>703</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1434</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>15</v>
+      </c>
+      <c r="F77" s="1">
+        <v>10</v>
+      </c>
+      <c r="G77" s="1">
+        <v>5</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1940</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1">
+        <v>16</v>
+      </c>
+      <c r="G78" s="1">
+        <v>5</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
         <v>46</v>
       </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1">
         <v>1544</v>
       </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
         <v>23</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F79" s="1">
         <v>9</v>
       </c>
-      <c r="G49" s="1">
-        <v>3</v>
-      </c>
-      <c r="H49" s="1">
-        <v>4</v>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>Fecha</t>
   </si>
@@ -232,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -278,36 +278,36 @@
         <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
         <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
-        <v>1061</v>
+        <v>827</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
         <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7</v>
       </c>
       <c r="H3" s="1">
         <v>14</v>
@@ -315,207 +315,207 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>827</v>
+        <v>706</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1">
-        <v>827</v>
+        <v>1005</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
-        <v>706</v>
+        <v>1304</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
-        <v>1005</v>
+        <v>1159</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
         <v>9</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
-        <v>1304</v>
+        <v>708</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="1">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -523,285 +523,285 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>1304</v>
+        <v>1030</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
-        <v>708</v>
+        <v>951</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="1">
-        <v>1159</v>
+        <v>950</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>1014</v>
+        <v>709</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
-        <v>1159</v>
+        <v>806</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
         <v>8</v>
       </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>7</v>
-      </c>
-      <c r="H16" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>1014</v>
+        <v>975</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1">
-        <v>708</v>
+        <v>1045</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="1">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1">
-        <v>702</v>
+        <v>1445</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
-        <v>702</v>
+        <v>1043</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>1030</v>
+        <v>796</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1">
         <v>6</v>
@@ -809,77 +809,77 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="1">
-        <v>1030</v>
+        <v>1135</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
-        <v>951</v>
+        <v>702</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
-        <v>951</v>
+        <v>1273</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1">
         <v>8</v>
@@ -887,59 +887,59 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="1">
-        <v>950</v>
+        <v>1230</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1">
         <v>9</v>
       </c>
-      <c r="F27" s="1">
-        <v>5</v>
-      </c>
       <c r="G27" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
@@ -960,27 +960,27 @@
         <v>3</v>
       </c>
       <c r="H28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
-        <v>709</v>
+        <v>1270</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1">
         <v>3</v>
@@ -991,143 +991,143 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
-        <v>806</v>
+        <v>1227</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="1">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F31" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1">
         <v>8</v>
       </c>
       <c r="H31" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="1">
-        <v>975</v>
+        <v>1209</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
-        <v>975</v>
+        <v>706</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="1">
-        <v>1045</v>
+        <v>1215</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1">
-        <v>1045</v>
+        <v>800</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1136,18 +1136,18 @@
         <v>16</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H35" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -1159,299 +1159,299 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1730</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>16</v>
       </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="1">
-        <v>705</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4</v>
-      </c>
       <c r="F37" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
         <v>4</v>
       </c>
       <c r="H37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="1">
-        <v>1445</v>
+        <v>1961</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>1445</v>
+        <v>1260</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1">
-        <v>1043</v>
+        <v>704</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1">
         <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
-        <v>796</v>
+        <v>1340</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H42" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1">
-        <v>796</v>
+        <v>2034</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1">
         <v>15</v>
       </c>
-      <c r="F43" s="1">
-        <v>6</v>
-      </c>
       <c r="G43" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H43" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1">
-        <v>1135</v>
+        <v>800</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H44" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>1135</v>
+        <v>1430</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F45" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G45" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H45" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
         <v>7</v>
       </c>
-      <c r="F46" s="1">
-        <v>2</v>
-      </c>
       <c r="G46" s="1">
         <v>3</v>
       </c>
       <c r="H46" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
-        <v>702</v>
+        <v>1434</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47" s="1">
         <v>2</v>
@@ -1459,833 +1459,53 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="1">
-        <v>1273</v>
+        <v>1940</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1">
         <v>16</v>
       </c>
-      <c r="F48" s="1">
-        <v>8</v>
-      </c>
       <c r="G48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>1273</v>
+        <v>1544</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1">
         <v>4</v>
       </c>
       <c r="H49" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1230</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>12</v>
-      </c>
-      <c r="F50" s="1">
-        <v>4</v>
-      </c>
-      <c r="G50" s="1">
-        <v>6</v>
-      </c>
-      <c r="H50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1230</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>12</v>
-      </c>
-      <c r="F51" s="1">
-        <v>5</v>
-      </c>
-      <c r="G51" s="1">
-        <v>6</v>
-      </c>
-      <c r="H51" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="1">
-        <v>800</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>18</v>
-      </c>
-      <c r="F52" s="1">
-        <v>8</v>
-      </c>
-      <c r="G52" s="1">
-        <v>8</v>
-      </c>
-      <c r="H52" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="1">
-        <v>800</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>18</v>
-      </c>
-      <c r="F53" s="1">
-        <v>9</v>
-      </c>
-      <c r="G53" s="1">
-        <v>8</v>
-      </c>
-      <c r="H53" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="1">
-        <v>709</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>10</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2</v>
-      </c>
-      <c r="G54" s="1">
-        <v>3</v>
-      </c>
-      <c r="H54" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="1">
-        <v>709</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>10</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3</v>
-      </c>
-      <c r="G55" s="1">
-        <v>3</v>
-      </c>
-      <c r="H55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1270</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>19</v>
-      </c>
-      <c r="F56" s="1">
-        <v>3</v>
-      </c>
-      <c r="G56" s="1">
-        <v>3</v>
-      </c>
-      <c r="H56" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1270</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>19</v>
-      </c>
-      <c r="F57" s="1">
-        <v>6</v>
-      </c>
-      <c r="G57" s="1">
-        <v>3</v>
-      </c>
-      <c r="H57" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1227</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>20</v>
-      </c>
-      <c r="F58" s="1">
-        <v>4</v>
-      </c>
-      <c r="G58" s="1">
-        <v>2</v>
-      </c>
-      <c r="H58" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1227</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>20</v>
-      </c>
-      <c r="F59" s="1">
-        <v>6</v>
-      </c>
-      <c r="G59" s="1">
-        <v>2</v>
-      </c>
-      <c r="H59" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="1">
-        <v>800</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>18</v>
-      </c>
-      <c r="F60" s="1">
-        <v>6</v>
-      </c>
-      <c r="G60" s="1">
-        <v>8</v>
-      </c>
-      <c r="H60" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="1">
-        <v>800</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>18</v>
-      </c>
-      <c r="F61" s="1">
-        <v>7</v>
-      </c>
-      <c r="G61" s="1">
-        <v>8</v>
-      </c>
-      <c r="H61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1209</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>16</v>
-      </c>
-      <c r="F62" s="1">
-        <v>5</v>
-      </c>
-      <c r="G62" s="1">
-        <v>5</v>
-      </c>
-      <c r="H62" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="1">
-        <v>706</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>7</v>
-      </c>
-      <c r="F63" s="1">
-        <v>3</v>
-      </c>
-      <c r="G63" s="1">
-        <v>2</v>
-      </c>
-      <c r="H63" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1215</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>17</v>
-      </c>
-      <c r="F64" s="1">
-        <v>3</v>
-      </c>
-      <c r="G64" s="1">
-        <v>3</v>
-      </c>
-      <c r="H64" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="1">
-        <v>800</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <v>16</v>
-      </c>
-      <c r="F65" s="1">
-        <v>8</v>
-      </c>
-      <c r="G65" s="1">
-        <v>7</v>
-      </c>
-      <c r="H65" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="1">
-        <v>705</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1">
-        <v>6</v>
-      </c>
-      <c r="F66" s="1">
-        <v>3</v>
-      </c>
-      <c r="G66" s="1">
-        <v>2</v>
-      </c>
-      <c r="H66" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1730</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1">
-        <v>16</v>
-      </c>
-      <c r="F67" s="1">
-        <v>5</v>
-      </c>
-      <c r="G67" s="1">
-        <v>4</v>
-      </c>
-      <c r="H67" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1961</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1">
-        <v>12</v>
-      </c>
-      <c r="F68" s="1">
-        <v>9</v>
-      </c>
-      <c r="G68" s="1">
-        <v>4</v>
-      </c>
-      <c r="H68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1260</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1">
-        <v>13</v>
-      </c>
-      <c r="F69" s="1">
-        <v>9</v>
-      </c>
-      <c r="G69" s="1">
-        <v>4</v>
-      </c>
-      <c r="H69" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="1">
-        <v>800</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1">
-        <v>12</v>
-      </c>
-      <c r="F70" s="1">
-        <v>12</v>
-      </c>
-      <c r="G70" s="1">
-        <v>8</v>
-      </c>
-      <c r="H70" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="1">
-        <v>704</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1">
-        <v>7</v>
-      </c>
-      <c r="F71" s="1">
-        <v>6</v>
-      </c>
-      <c r="G71" s="1">
-        <v>2</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1">
-        <v>13</v>
-      </c>
-      <c r="F72" s="1">
-        <v>7</v>
-      </c>
-      <c r="G72" s="1">
-        <v>3</v>
-      </c>
-      <c r="H72" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2034</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1">
-        <v>14</v>
-      </c>
-      <c r="F73" s="1">
-        <v>15</v>
-      </c>
-      <c r="G73" s="1">
-        <v>5</v>
-      </c>
-      <c r="H73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="1">
-        <v>800</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1">
-        <v>13</v>
-      </c>
-      <c r="F74" s="1">
-        <v>12</v>
-      </c>
-      <c r="G74" s="1">
-        <v>6</v>
-      </c>
-      <c r="H74" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>18</v>
-      </c>
-      <c r="F75" s="1">
-        <v>11</v>
-      </c>
-      <c r="G75" s="1">
-        <v>3</v>
-      </c>
-      <c r="H75" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="1">
-        <v>703</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1">
-        <v>8</v>
-      </c>
-      <c r="F76" s="1">
-        <v>7</v>
-      </c>
-      <c r="G76" s="1">
-        <v>3</v>
-      </c>
-      <c r="H76" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1434</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1">
-        <v>15</v>
-      </c>
-      <c r="F77" s="1">
-        <v>10</v>
-      </c>
-      <c r="G77" s="1">
-        <v>5</v>
-      </c>
-      <c r="H77" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1940</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>13</v>
-      </c>
-      <c r="F78" s="1">
-        <v>16</v>
-      </c>
-      <c r="G78" s="1">
-        <v>5</v>
-      </c>
-      <c r="H78" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1544</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>23</v>
-      </c>
-      <c r="F79" s="1">
-        <v>9</v>
-      </c>
-      <c r="G79" s="1">
-        <v>4</v>
-      </c>
-      <c r="H79" s="1">
         <v>3</v>
       </c>
     </row>

--- a/files/polls/CHL_2021.xlsx
+++ b/files/polls/CHL_2021.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Fecha</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>29/08/2020</t>
+  </si>
+  <si>
+    <t>31/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -232,7 +235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -240,25 +243,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -266,7 +269,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>1061</v>
@@ -292,7 +295,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>827</v>
@@ -318,7 +321,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -344,7 +347,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>1005</v>
@@ -370,7 +373,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>1304</v>
@@ -396,7 +399,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>708</v>
@@ -422,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>1159</v>
@@ -448,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>1014</v>
@@ -474,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1">
         <v>708</v>
@@ -500,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
         <v>702</v>
@@ -526,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>1030</v>
@@ -552,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>951</v>
@@ -578,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>950</v>
@@ -604,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>709</v>
@@ -630,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>806</v>
@@ -656,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
         <v>975</v>
@@ -682,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
         <v>1045</v>
@@ -708,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1">
         <v>705</v>
@@ -734,7 +737,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
         <v>1445</v>
@@ -760,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1">
         <v>1043</v>
@@ -786,7 +789,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1">
         <v>796</v>
@@ -812,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <v>1135</v>
@@ -838,7 +841,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1">
         <v>702</v>
@@ -864,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1">
         <v>1273</v>
@@ -890,7 +893,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>1230</v>
@@ -916,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1">
         <v>800</v>
@@ -942,7 +945,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1">
         <v>709</v>
@@ -968,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <v>1270</v>
@@ -994,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
         <v>1227</v>
@@ -1020,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>800</v>
@@ -1046,7 +1049,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <v>1209</v>
@@ -1072,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1">
         <v>706</v>
@@ -1098,7 +1101,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1">
         <v>1215</v>
@@ -1124,7 +1127,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1">
         <v>800</v>
@@ -1150,7 +1153,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1">
         <v>705</v>
@@ -1176,7 +1179,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <v>1730</v>
@@ -1202,7 +1205,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1">
         <v>1961</v>
@@ -1228,7 +1231,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1">
         <v>1260</v>
@@ -1254,7 +1257,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
         <v>800</v>
@@ -1280,7 +1283,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1">
         <v>704</v>
@@ -1306,7 +1309,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <v>1340</v>
@@ -1332,7 +1335,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1">
         <v>2034</v>
@@ -1358,7 +1361,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1">
         <v>800</v>
@@ -1384,7 +1387,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1">
         <v>1430</v>
@@ -1410,7 +1413,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1">
         <v>703</v>
@@ -1436,7 +1439,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1">
         <v>1434</v>
@@ -1462,7 +1465,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1">
         <v>1940</v>
@@ -1488,7 +1491,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1">
         <v>1544</v>
@@ -1507,6 +1510,32 @@
       </c>
       <c r="H49" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>986</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>15</v>
+      </c>
+      <c r="F50" s="1">
+        <v>16</v>
+      </c>
+      <c r="G50" s="1">
+        <v>7</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
